--- a/Code/98project/p1801fireWall/界面.xlsx
+++ b/Code/98project/p1801fireWall/界面.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7730"/>
+    <workbookView windowWidth="19200" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -21,7 +23,7 @@
     <author>qss</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="C11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
+    <comment ref="D11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0">
+    <comment ref="F16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0">
+    <comment ref="G16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0">
+    <comment ref="H16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>防火墙管理</t>
   </si>
@@ -204,6 +206,24 @@
     <t>操作</t>
   </si>
   <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>数据字典</t>
+  </si>
+  <si>
     <t>硬件防火墙</t>
   </si>
   <si>
@@ -312,6 +332,9 @@
     <t>申请人管理</t>
   </si>
   <si>
+    <t>a_proposer</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -325,6 +348,39 @@
   </si>
   <si>
     <t>部门</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>operation_system</t>
+  </si>
+  <si>
+    <t>sys_company_code</t>
+  </si>
+  <si>
+    <t>sys_org_code</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>分类管理</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>弹出页面</t>
+  </si>
+  <si>
+    <t>proposer</t>
   </si>
   <si>
     <t>zhangsan@chinaunicom.cn</t>
@@ -395,19 +451,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,31 +481,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,21 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,15 +504,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,7 +527,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -531,9 +535,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,15 +582,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,6 +609,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -577,19 +626,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,163 +794,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,11 +835,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,11 +865,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,6 +885,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,36 +913,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -883,153 +923,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,22 +1086,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1114,6 +1163,100 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>610235</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12192000" cy="6858635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>610235</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12192000" cy="6858635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1403,408 +1546,515 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:K36"/>
+  <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="1"/>
-    <col min="2" max="3" width="16.2727272727273" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.2727272727273" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.54545454545454" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11.8181818181818" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.72727272727273" style="1"/>
+    <col min="1" max="2" width="8.72727272727273" style="1"/>
+    <col min="3" max="4" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.1818181818182" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.2727272727273" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9.54545454545454" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11.8181818181818" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="1" spans="2:2">
-      <c r="B2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" spans="3:3">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="2:9">
-      <c r="B3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="3:10">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:7">
-      <c r="B4" s="4" t="s">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:10">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:10">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:7">
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:8">
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:8">
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:8">
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:3">
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:12">
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:12">
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="4">
+        <v>8888</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1521</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="6">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:12">
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4">
+        <v>8080</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="4">
+        <v>9999</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="6">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:4">
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:9">
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:9">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="2:7">
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:9">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:9">
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:9">
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="3:9">
+      <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="4">
+        <v>15600001111</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:2">
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:11">
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:11">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="4">
-        <v>8888</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1521</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="6">
-        <v>43465</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:11">
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="4">
-        <v>8080</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="4">
-        <v>9999</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="6">
-        <v>43830</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:2">
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="2:8">
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="22" s="1" customFormat="1" spans="3:9">
+      <c r="C22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D22" s="4">
+        <v>18611112222</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="2:8">
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4">
-        <v>15600001111</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="2:8">
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="4">
-        <v>18611112222</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="2:2">
-      <c r="B18" s="2" t="s">
+      <c r="G22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="3:3">
+      <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="2:3">
-      <c r="B19" s="3" t="s">
+    <row r="25" s="1" customFormat="1" spans="3:4">
+      <c r="C25" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="2:3">
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="2:3">
-      <c r="B21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="2:3">
-      <c r="B22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="2:2">
-      <c r="B24" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="2:4">
-      <c r="B25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="2:4">
-      <c r="B26" s="4" t="s">
-        <v>49</v>
-      </c>
+    <row r="26" s="1" customFormat="1" spans="3:4">
       <c r="C26" s="4" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="2:4">
-      <c r="B27" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="3:4">
       <c r="C27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="2:4">
-      <c r="B28" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="3:4">
       <c r="C28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="2:4">
-      <c r="B29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="2:3">
-      <c r="B31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="2:3">
-      <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="3:3">
+      <c r="C30" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="3:5">
+      <c r="C31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="2:3">
-      <c r="B33" s="4" t="s">
-        <v>65</v>
-      </c>
+    <row r="32" s="1" customFormat="1" spans="3:5">
+      <c r="C32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="3:5">
       <c r="C33" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="2:3">
-      <c r="B34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="2:3">
-      <c r="B35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="2:3">
-      <c r="B36" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="3:5">
+      <c r="C34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="3:5">
+      <c r="C35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="3:4">
+      <c r="C37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="3:4">
+      <c r="C38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="3:4">
+      <c r="C39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="3:4">
+      <c r="C40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="3:4">
+      <c r="C41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="3:4">
+      <c r="C42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId3" display="zhangsan@chinaunicom.cn"/>
+    <hyperlink ref="E21" r:id="rId3" display="zhangsan@chinaunicom.cn"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1845,4 +2095,38 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>